--- a/Server/extra_files/MyServerData/backup/backup.xlsx
+++ b/Server/extra_files/MyServerData/backup/backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySpace\Project\CPSSFA\Server\extra_files\MyServerData\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D36F81-42AE-46FB-850A-FA8E1E891A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F45DF3BF-6CD1-4BD7-8395-501E4DC30DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="1980" windowWidth="17280" windowHeight="8880" xr2:uid="{DC68F03B-4AA9-4FE4-925F-1E5B823F549D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE1F33AC-973F-4C47-9607-F97104F8BD20}"/>
   </bookViews>
   <sheets>
     <sheet name="voucher" sheetId="17" r:id="rId1"/>
@@ -746,7 +746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695CFFCA-22D0-4E97-8782-82A8C6D64083}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E63EF7-B364-4351-BB7C-242FD6971BE8}">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -806,7 +806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440CACA4-1918-46C6-ACD2-699AE13EA8A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353E9359-3E74-4952-B449-11245A746F38}">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66259A26-D336-4877-8048-1EE070385FB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8697FD-FBBB-4711-A072-2215C9AC0599}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C155ACBC-CE79-40D2-B8E4-5DAA6399A91E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397C8278-FE47-445F-9411-789AFFB56CB4}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878D6073-E6A2-428B-B7B3-A4C274A31763}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6548B1-DD17-4360-AE1F-02573A117039}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E454367-A03C-451A-8C0A-A05D37D0DA73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69732D6A-FBE4-4E91-86E7-295ACDEAAABE}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1025,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC807DA3-6802-41AB-A6A5-4B37880D21F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBD77CF-BDF6-482B-9B5E-AD73497E96A0}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1070,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6E8158-FD9D-4C13-B42D-9CCC61477640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6ADE93-B476-4577-9280-2EA530EAF048}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1097,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BB310F-75D3-4673-9581-1E399D2DD473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E2E203-041C-4A9B-B1D3-608DBD48FCD1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1109,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382FD8F4-01D9-42A8-A4A0-991122F0CA26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C3DFFD-5BBB-4CC9-B20D-3EAF43CD26F1}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1151,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628C38CE-5052-4D90-A74D-7B0CB1A74FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5C8023-C589-463C-A054-D415B4C8A1EE}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1187,7 +1187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C95765E-2FE7-43C3-8C59-BF5F6228D516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8608BCD2-7774-4887-8C4E-F5819F084223}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1235,7 +1235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EB1037-1227-4509-8CF8-BE1C913FA38A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12CAC8D-DFE8-4B86-9B86-D46A651B667B}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1301,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80383F33-E988-49EA-B706-CF7BFBD0EE47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1030E9C1-9401-44FD-80F3-959B85B0ACF3}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1349,7 +1349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB0C888-9E51-4985-B9F9-FC2BB488919C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0F5CDA-EC8E-45CD-B79F-7E49AAE5935C}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310327C0-6BE1-4C2D-974F-DD79811FB473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C3796C-BBCC-4F90-B11C-19A8FFE6835E}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1439,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684189FA-AD96-4EB0-8B83-47F9F4609D4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9BA2CE-6423-4B7A-9A58-8B851BE61D6A}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Server/extra_files/MyServerData/backup/backup.xlsx
+++ b/Server/extra_files/MyServerData/backup/backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySpace\Project\CPSSFA\Server\extra_files\MyServerData\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F45DF3BF-6CD1-4BD7-8395-501E4DC30DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D07BE2-4A03-438A-A9BA-797AFC529766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE1F33AC-973F-4C47-9607-F97104F8BD20}"/>
   </bookViews>

--- a/Server/extra_files/MyServerData/backup/backup.xlsx
+++ b/Server/extra_files/MyServerData/backup/backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySpace\Project\CPSSFA\Server\extra_files\MyServerData\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D07BE2-4A03-438A-A9BA-797AFC529766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1269BE01-BFF4-4246-A631-BD84FF7B4EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE1F33AC-973F-4C47-9607-F97104F8BD20}"/>
   </bookViews>

--- a/Server/extra_files/MyServerData/backup/backup.xlsx
+++ b/Server/extra_files/MyServerData/backup/backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySpace\Project\CPSSFA\Server\extra_files\MyServerData\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D07BE2-4A03-438A-A9BA-797AFC529766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8832BD4E-20F7-41BF-BA36-BC71E3B54370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE1F33AC-973F-4C47-9607-F97104F8BD20}"/>
   </bookViews>

--- a/Server/extra_files/MyServerData/backup/backup.xlsx
+++ b/Server/extra_files/MyServerData/backup/backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySpace\Project\CPSSFA\Server\extra_files\MyServerData\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8832BD4E-20F7-41BF-BA36-BC71E3B54370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{679F1B05-5F3B-4EEF-9463-AE78E458B47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE1F33AC-973F-4C47-9607-F97104F8BD20}"/>
   </bookViews>

--- a/Server/extra_files/MyServerData/backup/backup.xlsx
+++ b/Server/extra_files/MyServerData/backup/backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySpace\Project\CPSSFA\Server\extra_files\MyServerData\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679F1B05-5F3B-4EEF-9463-AE78E458B47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8832BD4E-20F7-41BF-BA36-BC71E3B54370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE1F33AC-973F-4C47-9607-F97104F8BD20}"/>
   </bookViews>
